--- a/data/BondDeal/短融.xlsx
+++ b/data/BondDeal/短融.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,25 +31,34 @@
     <t>year</t>
   </si>
   <si>
-    <t>207D</t>
-  </si>
-  <si>
-    <t>250D</t>
-  </si>
-  <si>
-    <t>20南通沿海SCP002</t>
-  </si>
-  <si>
-    <t>20陕投集团SCP002</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>3.44</t>
+    <t>217D</t>
+  </si>
+  <si>
+    <t>283D</t>
+  </si>
+  <si>
+    <t>294D</t>
+  </si>
+  <si>
+    <t>20北部湾SCP010</t>
+  </si>
+  <si>
+    <t>20锡产业CP002</t>
+  </si>
+  <si>
+    <t>20九龙江CP001</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
   <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>AAA/A-1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,16 +447,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0.5671232876712329</v>
+        <v>0.5945205479452055</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,16 +467,36 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0.7753424657534247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>0.684931506849315</v>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0.8054794520547945</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/短融.xlsx
+++ b/data/BondDeal/短融.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,34 +31,28 @@
     <t>year</t>
   </si>
   <si>
-    <t>217D</t>
-  </si>
-  <si>
-    <t>283D</t>
-  </si>
-  <si>
     <t>294D</t>
   </si>
   <si>
-    <t>20北部湾SCP010</t>
-  </si>
-  <si>
-    <t>20锡产业CP002</t>
-  </si>
-  <si>
-    <t>20九龙江CP001</t>
-  </si>
-  <si>
-    <t>3.84</t>
-  </si>
-  <si>
-    <t>3.25</t>
+    <t>364D</t>
+  </si>
+  <si>
+    <t>20铁道CP003</t>
+  </si>
+  <si>
+    <t>20深圳水务CP004</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>AAA/A-1</t>
   </si>
   <si>
     <t>AAA</t>
-  </si>
-  <si>
-    <t>AAA/A-1</t>
   </si>
 </sst>
 </file>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,16 +441,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2">
-        <v>0.5945205479452055</v>
+        <v>0.8054794520547945</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,36 +461,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3">
-        <v>0.7753424657534247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0.8054794520547945</v>
+        <v>0.9972602739726028</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/短融.xlsx
+++ b/data/BondDeal/短融.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,28 +31,34 @@
     <t>year</t>
   </si>
   <si>
+    <t>217D</t>
+  </si>
+  <si>
+    <t>283D</t>
+  </si>
+  <si>
     <t>294D</t>
   </si>
   <si>
-    <t>364D</t>
-  </si>
-  <si>
-    <t>20铁道CP003</t>
-  </si>
-  <si>
-    <t>20深圳水务CP004</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>20北部湾SCP010</t>
+  </si>
+  <si>
+    <t>20锡产业CP002</t>
+  </si>
+  <si>
+    <t>20九龙江CP001</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
   <si>
     <t>AAA/A-1</t>
-  </si>
-  <si>
-    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,16 +447,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0.8054794520547945</v>
+        <v>0.5945205479452055</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,16 +467,36 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0.7753424657534247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>0.9972602739726028</v>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0.8054794520547945</v>
       </c>
     </row>
   </sheetData>
